--- a/4xCityBuilder/Assets/Definitions/Resources.xlsx
+++ b/4xCityBuilder/Assets/Definitions/Resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikeg\OneDrive\Documents\Documents\4XCityBuilder\4xCityBuilder\Assets\Definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15066539-FFF5-41C2-AA73-3CDF84B38B59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C8FBC7-348E-4329-ABF5-1EBF6576BB23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Industry Hierarchy'!$A$1:$B$204</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$1:$G$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$1:$H$204</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="295">
   <si>
     <t>Name</t>
   </si>
@@ -909,6 +909,24 @@
   </si>
   <si>
     <t>Cow</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Textures/Resource/Coal</t>
+  </si>
+  <si>
+    <t>Textures/Resource/HeavyArmor</t>
+  </si>
+  <si>
+    <t>Textures/Resource/LightArmor</t>
+  </si>
+  <si>
+    <t>Textures/Resource/Longsword</t>
+  </si>
+  <si>
+    <t>Textures/Resource/Shield</t>
   </si>
 </sst>
 </file>
@@ -1561,11 +1579,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1597,7 @@
     <col min="7" max="7" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>223</v>
       </c>
@@ -1601,8 +1619,11 @@
       <c r="G1" s="4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1622,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1642,101 +1663,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="F6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="F8" s="5">
         <v>5</v>
@@ -1745,253 +1763,274 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="F10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="F11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="F14" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="F16" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>189</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="F17" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
       </c>
       <c r="G18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>189</v>
+      </c>
+      <c r="D19" t="s">
+        <v>188</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="F19" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
+        <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="F20" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -1999,22 +2038,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="F21" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -2025,16 +2064,16 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -2045,13 +2084,13 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F23" s="5">
         <v>3</v>
@@ -2065,19 +2104,19 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="F24" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
@@ -2088,22 +2127,19 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="F25" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2111,111 +2147,96 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="F26" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="F27" s="5">
         <v>5</v>
       </c>
       <c r="G27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="F28" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="F29" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>243</v>
+        <v>117</v>
       </c>
       <c r="F30" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" s="5">
         <v>1</v>
@@ -2223,42 +2244,36 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>236</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>244</v>
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
       </c>
       <c r="F31" s="5">
         <v>5</v>
       </c>
       <c r="G31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" t="s">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>118</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
@@ -2269,91 +2284,79 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="F33" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="F34" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>249</v>
+        <v>121</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
       </c>
       <c r="F35" s="5">
         <v>5</v>
       </c>
       <c r="G35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="F36" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -2361,22 +2364,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="F37" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -2384,22 +2384,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="F38" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -2410,19 +2407,16 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" t="s">
-        <v>250</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>254</v>
+        <v>163</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
       </c>
       <c r="F39" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G39" s="5">
         <v>1</v>
@@ -2433,22 +2427,19 @@
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
       </c>
       <c r="G40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2456,22 +2447,19 @@
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F41" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2479,19 +2467,19 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F42" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -2502,19 +2490,16 @@
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F43" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -2525,19 +2510,19 @@
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F44" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -2548,16 +2533,19 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>233</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F45" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
@@ -2568,16 +2556,19 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="D46" t="s">
+        <v>233</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F46" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -2585,19 +2576,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F47" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G47" s="5">
         <v>0</v>
@@ -2605,79 +2596,79 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F48" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="F49" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G49" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F50" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F51" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="5">
         <v>0</v>
@@ -2688,19 +2679,19 @@
         <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>232</v>
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
       </c>
       <c r="F52" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G52" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,13 +2699,13 @@
         <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
@@ -2725,19 +2716,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F54" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" s="5">
         <v>1</v>
@@ -2745,48 +2739,45 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="5">
         <v>2</v>
       </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
       <c r="G55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F56" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,22 +2785,19 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F57" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2817,19 +2805,16 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>231</v>
+        <v>38</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
       </c>
       <c r="F58" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" s="5">
         <v>0</v>
@@ -2840,19 +2825,19 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F59" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
@@ -2860,39 +2845,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="F60" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F61" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61" s="5">
         <v>1</v>
@@ -2900,79 +2885,91 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="F62" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G62" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="F63" s="5">
         <v>3</v>
       </c>
       <c r="G63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="F64" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="F65" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G65" s="5">
         <v>1</v>
@@ -2980,39 +2977,45 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>67</v>
+      </c>
+      <c r="D66" t="s">
+        <v>236</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="F66" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G66" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>236</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="F67" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
@@ -3020,76 +3023,88 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>236</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="F68" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" t="s">
-        <v>122</v>
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="F69" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
+        <v>245</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="F70" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>67</v>
+      </c>
+      <c r="D71" t="s">
+        <v>245</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="F71" s="5">
         <v>3</v>
@@ -3100,19 +3115,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>245</v>
       </c>
       <c r="E72" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="F72" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G72" s="5">
         <v>1</v>
@@ -3120,16 +3138,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
-      </c>
-      <c r="E73" t="s">
-        <v>126</v>
+        <v>67</v>
+      </c>
+      <c r="D73" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="F73" s="5">
         <v>5</v>
@@ -3140,82 +3161,91 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>67</v>
+      </c>
+      <c r="D74" t="s">
+        <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="F74" s="5">
         <v>2</v>
       </c>
       <c r="G74" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>67</v>
+      </c>
+      <c r="D75" t="s">
+        <v>250</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="F75" s="5">
         <v>3</v>
       </c>
       <c r="G75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>67</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="F76" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" t="s">
-        <v>78</v>
+        <v>250</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="F77" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77" s="5">
         <v>1</v>
@@ -3223,22 +3253,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F78" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="5">
         <v>1</v>
@@ -3246,19 +3276,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>67</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F79" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79" s="5">
         <v>1</v>
@@ -3266,36 +3299,42 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>259</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>53</v>
+      </c>
+      <c r="D80" t="s">
+        <v>67</v>
       </c>
       <c r="E80" t="s">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="F80" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>53</v>
+      </c>
+      <c r="D81" t="s">
+        <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="F81" s="5">
         <v>3</v>
@@ -3304,18 +3343,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>53</v>
+      </c>
+      <c r="D82" t="s">
+        <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>261</v>
+        <v>58</v>
       </c>
       <c r="F82" s="5">
         <v>5</v>
@@ -3324,18 +3366,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="F83" s="5">
         <v>3</v>
@@ -3343,99 +3385,102 @@
       <c r="G83" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F84" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="F85" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G85" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="F86" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G86" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="E87" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="F87" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="E88" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F88" s="5">
         <v>5</v>
@@ -3444,144 +3489,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="F89" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="F90" s="5">
+        <v>5</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="5">
         <v>3</v>
       </c>
-      <c r="G90" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" t="s">
-        <v>104</v>
-      </c>
-      <c r="E91" t="s">
-        <v>106</v>
-      </c>
-      <c r="F91" s="5">
-        <v>5</v>
-      </c>
       <c r="G91" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
-      </c>
-      <c r="D92" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="E92" t="s">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="F92" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G92" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>159</v>
-      </c>
-      <c r="D93" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="E93" t="s">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="F93" s="5">
+        <v>1</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" t="s">
+        <v>188</v>
+      </c>
+      <c r="E94" t="s">
+        <v>279</v>
+      </c>
+      <c r="F94" s="5">
         <v>5</v>
       </c>
-      <c r="G93" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" t="s">
-        <v>107</v>
-      </c>
-      <c r="F94" s="5">
-        <v>2</v>
-      </c>
       <c r="G94" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s">
-        <v>160</v>
+        <v>187</v>
+      </c>
+      <c r="D95" t="s">
+        <v>188</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="F95" s="5">
         <v>5</v>
@@ -3590,124 +3635,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C96" t="s">
-        <v>160</v>
+        <v>187</v>
+      </c>
+      <c r="D96" t="s">
+        <v>188</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="F96" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="C97" t="s">
-        <v>256</v>
+        <v>187</v>
+      </c>
+      <c r="D97" t="s">
+        <v>188</v>
       </c>
       <c r="E97" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="F97" s="5">
         <v>1</v>
       </c>
       <c r="G97" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s">
-        <v>256</v>
+        <v>187</v>
+      </c>
+      <c r="D98" t="s">
+        <v>188</v>
       </c>
       <c r="E98" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="F98" s="5">
         <v>3</v>
       </c>
       <c r="G98" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s">
-        <v>256</v>
+        <v>187</v>
+      </c>
+      <c r="D99" t="s">
+        <v>188</v>
       </c>
       <c r="E99" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="F99" s="5">
+        <v>4</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" t="s">
+        <v>283</v>
+      </c>
+      <c r="F100" s="5">
         <v>5</v>
       </c>
-      <c r="G99" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" t="s">
-        <v>264</v>
-      </c>
-      <c r="C100" t="s">
-        <v>171</v>
-      </c>
-      <c r="D100" t="s">
-        <v>158</v>
-      </c>
-      <c r="E100" t="s">
-        <v>270</v>
-      </c>
-      <c r="F100" s="5">
-        <v>1</v>
-      </c>
       <c r="G100" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
-      </c>
-      <c r="D101" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E101" t="s">
-        <v>271</v>
+        <v>150</v>
       </c>
       <c r="F101" s="5">
         <v>5</v>
@@ -3715,259 +3766,274 @@
       <c r="G101" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B102" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="C102" t="s">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="E102" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="F102" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="C103" t="s">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="E103" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="F103" s="5">
+        <v>1</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" t="s">
+        <v>148</v>
+      </c>
+      <c r="F104" s="5">
         <v>3</v>
       </c>
-      <c r="G103" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>83</v>
-      </c>
-      <c r="B104" t="s">
-        <v>264</v>
-      </c>
-      <c r="C104" t="s">
-        <v>267</v>
-      </c>
-      <c r="E104" t="s">
-        <v>265</v>
-      </c>
-      <c r="F104" s="5">
-        <v>5</v>
-      </c>
       <c r="G104" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="E105" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="F105" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G105" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="E106" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F106" s="5">
         <v>1</v>
       </c>
       <c r="G106" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F107" s="5">
         <v>3</v>
       </c>
       <c r="G107" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F108" s="5">
+        <v>5</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" t="s">
+        <v>274</v>
+      </c>
+      <c r="F109" s="5">
+        <v>4</v>
+      </c>
+      <c r="G109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" t="s">
+        <v>112</v>
+      </c>
+      <c r="F110" s="5">
+        <v>3</v>
+      </c>
+      <c r="G110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" t="s">
+        <v>113</v>
+      </c>
+      <c r="F111" s="5">
         <v>2</v>
       </c>
-      <c r="G108" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>81</v>
-      </c>
-      <c r="B109" t="s">
-        <v>100</v>
-      </c>
-      <c r="C109" t="s">
-        <v>28</v>
-      </c>
-      <c r="E109" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="5">
-        <v>1</v>
-      </c>
-      <c r="G109" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>81</v>
-      </c>
-      <c r="B110" t="s">
-        <v>100</v>
-      </c>
-      <c r="C110" t="s">
-        <v>28</v>
-      </c>
-      <c r="E110" t="s">
-        <v>31</v>
-      </c>
-      <c r="F110" s="5">
-        <v>5</v>
-      </c>
-      <c r="G110" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>81</v>
-      </c>
-      <c r="B111" t="s">
-        <v>100</v>
-      </c>
-      <c r="C111" t="s">
-        <v>28</v>
-      </c>
-      <c r="E111" t="s">
-        <v>30</v>
-      </c>
-      <c r="F111" s="5">
-        <v>3</v>
-      </c>
       <c r="G111" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="F112" s="5">
         <v>5</v>
       </c>
       <c r="G112" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="F113" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E114" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F114" s="5">
         <v>3</v>
@@ -3976,98 +4042,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="F115" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G115" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B116" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E116" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="F116" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G116" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="F117" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G117" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="F118" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G118" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="F119" s="5">
         <v>2</v>
@@ -4075,102 +4147,120 @@
       <c r="G119" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F120" s="5">
+        <v>1</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="s">
+        <v>138</v>
+      </c>
+      <c r="C121" t="s">
+        <v>139</v>
+      </c>
+      <c r="E121" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" s="5">
         <v>3</v>
       </c>
-      <c r="G120" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>81</v>
-      </c>
-      <c r="B121" t="s">
-        <v>102</v>
-      </c>
-      <c r="C121" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="5">
-        <v>5</v>
-      </c>
       <c r="G121" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E122" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="F122" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G122" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="C123" t="s">
-        <v>219</v>
+        <v>159</v>
+      </c>
+      <c r="D123" t="s">
+        <v>158</v>
       </c>
       <c r="E123" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="F123" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G123" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="C124" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D124" t="s">
         <v>158</v>
       </c>
       <c r="E124" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F124" s="5">
         <v>5</v>
@@ -4178,8 +4268,11 @@
       <c r="G124" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>82</v>
       </c>
@@ -4187,13 +4280,13 @@
         <v>221</v>
       </c>
       <c r="C125" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E125" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="F125" s="5">
         <v>5</v>
@@ -4201,19 +4294,25 @@
       <c r="G125" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>159</v>
+      </c>
+      <c r="D126" t="s">
+        <v>158</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="F126" s="5">
         <v>5</v>
@@ -4221,91 +4320,115 @@
       <c r="G126" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D127" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E127" t="s">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="F127" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G127" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>159</v>
+      </c>
+      <c r="D128" t="s">
+        <v>158</v>
       </c>
       <c r="E128" t="s">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="F128" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G128" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C129" t="s">
-        <v>104</v>
+        <v>159</v>
+      </c>
+      <c r="D129" t="s">
+        <v>158</v>
       </c>
       <c r="E129" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="F129" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G129" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>159</v>
+      </c>
+      <c r="D130" t="s">
+        <v>158</v>
       </c>
       <c r="E130" t="s">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="F130" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G130" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>82</v>
       </c>
@@ -4313,13 +4436,13 @@
         <v>221</v>
       </c>
       <c r="C131" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D131" t="s">
         <v>158</v>
       </c>
       <c r="E131" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="F131" s="5">
         <v>5</v>
@@ -4328,12 +4451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C132" t="s">
         <v>169</v>
@@ -4342,7 +4465,7 @@
         <v>158</v>
       </c>
       <c r="E132" t="s">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="F132" s="5">
         <v>5</v>
@@ -4351,167 +4474,170 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
-        <v>217</v>
+        <v>169</v>
+      </c>
+      <c r="D133" t="s">
+        <v>158</v>
       </c>
       <c r="E133" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="F133" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G133" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B134" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
-        <v>151</v>
+        <v>169</v>
+      </c>
+      <c r="D134" t="s">
+        <v>158</v>
       </c>
       <c r="E134" t="s">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="F134" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D135" t="s">
         <v>158</v>
       </c>
       <c r="E135" t="s">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="F135" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C136" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D136" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E136" t="s">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="F136" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G136" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B137" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="C137" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="E137" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="F137" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G137" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="C138" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="E138" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="F138" s="5">
         <v>3</v>
       </c>
       <c r="G138" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B139" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="C139" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="E139" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="F139" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G139" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>127</v>
       </c>
       <c r="B140" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C140" t="s">
-        <v>170</v>
-      </c>
-      <c r="D140" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="E140" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="F140" s="5">
         <v>5</v>
@@ -4520,21 +4646,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>127</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C141" t="s">
-        <v>170</v>
-      </c>
-      <c r="D141" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="E141" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="F141" s="5">
         <v>2</v>
@@ -4543,21 +4666,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>127</v>
       </c>
       <c r="B142" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C142" t="s">
-        <v>170</v>
-      </c>
-      <c r="D142" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="E142" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="F142" s="5">
         <v>1</v>
@@ -4566,21 +4686,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>127</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C143" t="s">
-        <v>170</v>
-      </c>
-      <c r="D143" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="E143" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="F143" s="5">
         <v>3</v>
@@ -4589,21 +4706,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>127</v>
       </c>
       <c r="B144" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C144" t="s">
-        <v>170</v>
-      </c>
-      <c r="D144" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="E144" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="F144" s="5">
         <v>4</v>
@@ -4617,19 +4731,16 @@
         <v>127</v>
       </c>
       <c r="B145" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C145" t="s">
-        <v>189</v>
-      </c>
-      <c r="D145" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="E145" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="F145" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G145" s="5">
         <v>0</v>
@@ -4637,22 +4748,19 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B146" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="C146" t="s">
-        <v>189</v>
-      </c>
-      <c r="D146" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="E146" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="F146" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G146" s="5">
         <v>0</v>
@@ -4660,22 +4768,19 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B147" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
-      </c>
-      <c r="D147" t="s">
-        <v>188</v>
-      </c>
-      <c r="E147" t="s">
-        <v>196</v>
+        <v>90</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="F147" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G147" s="5">
         <v>0</v>
@@ -4683,22 +4788,19 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="C148" t="s">
-        <v>189</v>
-      </c>
-      <c r="D148" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="F148" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G148" s="5">
         <v>0</v>
@@ -4706,22 +4808,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
-        <v>189</v>
-      </c>
-      <c r="D149" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F149" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G149" s="5">
         <v>0</v>
@@ -4729,22 +4828,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="C150" t="s">
-        <v>187</v>
-      </c>
-      <c r="D150" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="F150" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G150" s="5">
         <v>0</v>
@@ -4752,22 +4848,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="C151" t="s">
-        <v>187</v>
-      </c>
-      <c r="D151" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="F151" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G151" s="5">
         <v>0</v>
@@ -4775,22 +4868,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B152" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="C152" t="s">
-        <v>187</v>
-      </c>
-      <c r="D152" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="F152" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G152" s="5">
         <v>0</v>
@@ -4798,22 +4888,19 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="C153" t="s">
-        <v>187</v>
-      </c>
-      <c r="D153" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="F153" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G153" s="5">
         <v>0</v>
@@ -4821,19 +4908,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
-        <v>187</v>
-      </c>
-      <c r="D154" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E154" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F154" s="5">
         <v>4</v>
@@ -4847,16 +4931,16 @@
         <v>127</v>
       </c>
       <c r="B155" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C155" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E155" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F155" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G155" s="5">
         <v>0</v>
@@ -4867,13 +4951,13 @@
         <v>127</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C156" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E156" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F156" s="5">
         <v>2</v>
@@ -4884,19 +4968,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B157" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C157" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="E157" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="F157" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G157" s="5">
         <v>0</v>
@@ -4904,19 +4988,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B158" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C158" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E158" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="F158" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G158" s="5">
         <v>0</v>
@@ -4924,19 +5008,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B159" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C159" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="F159" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G159" s="5">
         <v>0</v>
@@ -4944,85 +5028,88 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B160" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="C160" t="s">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="E160" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="F160" s="5">
+        <v>1</v>
+      </c>
+      <c r="G160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161" t="s">
+        <v>255</v>
+      </c>
+      <c r="C161" t="s">
+        <v>256</v>
+      </c>
+      <c r="E161" t="s">
+        <v>268</v>
+      </c>
+      <c r="F161" s="5">
+        <v>3</v>
+      </c>
+      <c r="G161" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>83</v>
+      </c>
+      <c r="B162" t="s">
+        <v>255</v>
+      </c>
+      <c r="C162" t="s">
+        <v>256</v>
+      </c>
+      <c r="E162" t="s">
+        <v>258</v>
+      </c>
+      <c r="F162" s="5">
         <v>5</v>
       </c>
-      <c r="G160" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>127</v>
-      </c>
-      <c r="B161" t="s">
-        <v>138</v>
-      </c>
-      <c r="C161" t="s">
-        <v>139</v>
-      </c>
-      <c r="E161" t="s">
-        <v>143</v>
-      </c>
-      <c r="F161" s="5">
-        <v>2</v>
-      </c>
-      <c r="G161" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>127</v>
-      </c>
-      <c r="B162" t="s">
-        <v>138</v>
-      </c>
-      <c r="C162" t="s">
-        <v>139</v>
-      </c>
-      <c r="E162" t="s">
-        <v>140</v>
-      </c>
-      <c r="F162" s="5">
-        <v>1</v>
-      </c>
       <c r="G162" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B163" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="C163" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E163" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="F163" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G163" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>127</v>
       </c>
@@ -5030,148 +5117,151 @@
         <v>138</v>
       </c>
       <c r="C164" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E164" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F164" s="5">
+        <v>5</v>
+      </c>
+      <c r="G164" s="5">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>127</v>
+      </c>
+      <c r="B165" t="s">
+        <v>138</v>
+      </c>
+      <c r="C165" t="s">
+        <v>151</v>
+      </c>
+      <c r="E165" t="s">
+        <v>153</v>
+      </c>
+      <c r="F165" s="5">
+        <v>2</v>
+      </c>
+      <c r="G165" s="5">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>127</v>
+      </c>
+      <c r="B166" t="s">
+        <v>138</v>
+      </c>
+      <c r="C166" t="s">
+        <v>151</v>
+      </c>
+      <c r="E166" t="s">
+        <v>152</v>
+      </c>
+      <c r="F166" s="5">
+        <v>1</v>
+      </c>
+      <c r="G166" s="5">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>127</v>
+      </c>
+      <c r="B167" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" t="s">
+        <v>151</v>
+      </c>
+      <c r="E167" t="s">
+        <v>154</v>
+      </c>
+      <c r="F167" s="5">
+        <v>3</v>
+      </c>
+      <c r="G167" s="5">
+        <v>0</v>
+      </c>
+      <c r="H167" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>127</v>
+      </c>
+      <c r="B168" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" t="s">
+        <v>151</v>
+      </c>
+      <c r="E168" t="s">
+        <v>155</v>
+      </c>
+      <c r="F168" s="5">
         <v>4</v>
       </c>
-      <c r="G164" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>127</v>
-      </c>
-      <c r="B165" t="s">
-        <v>157</v>
-      </c>
-      <c r="C165" t="s">
-        <v>159</v>
-      </c>
-      <c r="D165" t="s">
-        <v>158</v>
-      </c>
-      <c r="E165" t="s">
-        <v>168</v>
-      </c>
-      <c r="F165" s="5">
-        <v>5</v>
-      </c>
-      <c r="G165" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>127</v>
-      </c>
-      <c r="B166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C166" t="s">
-        <v>159</v>
-      </c>
-      <c r="D166" t="s">
-        <v>158</v>
-      </c>
-      <c r="E166" t="s">
-        <v>165</v>
-      </c>
-      <c r="F166" s="5">
-        <v>2</v>
-      </c>
-      <c r="G166" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>127</v>
-      </c>
-      <c r="B167" t="s">
-        <v>157</v>
-      </c>
-      <c r="C167" t="s">
-        <v>159</v>
-      </c>
-      <c r="D167" t="s">
-        <v>158</v>
-      </c>
-      <c r="E167" t="s">
-        <v>164</v>
-      </c>
-      <c r="F167" s="5">
-        <v>1</v>
-      </c>
-      <c r="G167" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>127</v>
-      </c>
-      <c r="B168" t="s">
-        <v>157</v>
-      </c>
-      <c r="C168" t="s">
-        <v>159</v>
-      </c>
-      <c r="D168" t="s">
-        <v>158</v>
-      </c>
-      <c r="E168" t="s">
-        <v>166</v>
-      </c>
-      <c r="F168" s="5">
-        <v>3</v>
-      </c>
       <c r="G168" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="C169" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D169" t="s">
         <v>158</v>
       </c>
       <c r="E169" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="F169" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G169" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="C170" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D170" t="s">
         <v>158</v>
       </c>
       <c r="E170" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="F170" s="5">
         <v>5</v>
@@ -5180,30 +5270,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B171" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="C171" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D171" t="s">
         <v>158</v>
       </c>
       <c r="E171" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="F171" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G171" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>127</v>
       </c>
@@ -5211,22 +5301,22 @@
         <v>157</v>
       </c>
       <c r="C172" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D172" t="s">
         <v>158</v>
       </c>
       <c r="E172" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F172" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G172" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>127</v>
       </c>
@@ -5234,22 +5324,22 @@
         <v>157</v>
       </c>
       <c r="C173" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D173" t="s">
         <v>158</v>
       </c>
       <c r="E173" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F173" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G173" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>127</v>
       </c>
@@ -5257,56 +5347,62 @@
         <v>157</v>
       </c>
       <c r="C174" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D174" t="s">
         <v>158</v>
       </c>
       <c r="E174" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F174" s="5">
+        <v>1</v>
+      </c>
+      <c r="G174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>127</v>
+      </c>
+      <c r="B175" t="s">
+        <v>157</v>
+      </c>
+      <c r="C175" t="s">
+        <v>171</v>
+      </c>
+      <c r="D175" t="s">
+        <v>158</v>
+      </c>
+      <c r="E175" t="s">
+        <v>184</v>
+      </c>
+      <c r="F175" s="5">
+        <v>3</v>
+      </c>
+      <c r="G175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>127</v>
+      </c>
+      <c r="B176" t="s">
+        <v>157</v>
+      </c>
+      <c r="C176" t="s">
+        <v>171</v>
+      </c>
+      <c r="D176" t="s">
+        <v>158</v>
+      </c>
+      <c r="E176" t="s">
+        <v>185</v>
+      </c>
+      <c r="F176" s="5">
         <v>4</v>
-      </c>
-      <c r="G174" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>127</v>
-      </c>
-      <c r="B175" t="s">
-        <v>128</v>
-      </c>
-      <c r="C175" t="s">
-        <v>130</v>
-      </c>
-      <c r="E175" t="s">
-        <v>135</v>
-      </c>
-      <c r="F175" s="5">
-        <v>5</v>
-      </c>
-      <c r="G175" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>127</v>
-      </c>
-      <c r="B176" t="s">
-        <v>128</v>
-      </c>
-      <c r="C176" t="s">
-        <v>130</v>
-      </c>
-      <c r="E176" t="s">
-        <v>136</v>
-      </c>
-      <c r="F176" s="5">
-        <v>2</v>
       </c>
       <c r="G176" s="5">
         <v>0</v>
@@ -5314,19 +5410,19 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B177" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C177" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="F177" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G177" s="5">
         <v>0</v>
@@ -5334,19 +5430,19 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B178" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C178" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="E178" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="F178" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G178" s="5">
         <v>0</v>
@@ -5354,19 +5450,19 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B179" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C179" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="E179" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="F179" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G179" s="5">
         <v>0</v>
@@ -5374,19 +5470,19 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B180" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C180" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="F180" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G180" s="5">
         <v>0</v>
@@ -5394,19 +5490,19 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B181" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C181" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="E181" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="F181" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G181" s="5">
         <v>0</v>
@@ -5417,16 +5513,16 @@
         <v>127</v>
       </c>
       <c r="B182" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="C182" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="E182" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="F182" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G182" s="5">
         <v>0</v>
@@ -5437,16 +5533,16 @@
         <v>127</v>
       </c>
       <c r="B183" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="C183" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="E183" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="F183" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G183" s="5">
         <v>0</v>
@@ -5457,16 +5553,16 @@
         <v>127</v>
       </c>
       <c r="B184" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="C184" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="E184" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="F184" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G184" s="5">
         <v>0</v>
@@ -5477,16 +5573,16 @@
         <v>127</v>
       </c>
       <c r="B185" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="C185" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="E185" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="F185" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G185" s="5">
         <v>0</v>
@@ -5497,16 +5593,16 @@
         <v>127</v>
       </c>
       <c r="B186" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="C186" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="E186" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="F186" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G186" s="5">
         <v>0</v>
@@ -5514,68 +5610,62 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B187" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="C187" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="E187" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="F187" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G187" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B188" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="C188" t="s">
-        <v>171</v>
-      </c>
-      <c r="D188" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="E188" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="F188" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G188" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B189" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="C189" t="s">
-        <v>171</v>
-      </c>
-      <c r="D189" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="E189" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="F189" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G189" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5583,22 +5673,19 @@
         <v>127</v>
       </c>
       <c r="B190" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="C190" t="s">
-        <v>171</v>
-      </c>
-      <c r="D190" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="E190" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="F190" s="5">
         <v>1</v>
       </c>
       <c r="G190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5606,42 +5693,39 @@
         <v>127</v>
       </c>
       <c r="B191" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="C191" t="s">
-        <v>171</v>
-      </c>
-      <c r="D191" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="E191" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="F191" s="5">
         <v>3</v>
       </c>
       <c r="G191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B192" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="C192" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D192" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E192" t="s">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="F192" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G192" s="5">
         <v>0</v>
@@ -5652,13 +5736,16 @@
         <v>127</v>
       </c>
       <c r="B193" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C193" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+      <c r="D193" t="s">
+        <v>188</v>
       </c>
       <c r="E193" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F193" s="5">
         <v>5</v>
@@ -5672,13 +5759,16 @@
         <v>127</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C194" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+      <c r="D194" t="s">
+        <v>188</v>
       </c>
       <c r="E194" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F194" s="5">
         <v>2</v>
@@ -5692,13 +5782,16 @@
         <v>127</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C195" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+      <c r="D195" t="s">
+        <v>188</v>
       </c>
       <c r="E195" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F195" s="5">
         <v>1</v>
@@ -5712,13 +5805,16 @@
         <v>127</v>
       </c>
       <c r="B196" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C196" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+      <c r="D196" t="s">
+        <v>188</v>
       </c>
       <c r="E196" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F196" s="5">
         <v>3</v>
@@ -5732,13 +5828,16 @@
         <v>127</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C197" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+      <c r="D197" t="s">
+        <v>188</v>
       </c>
       <c r="E197" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F197" s="5">
         <v>4</v>
@@ -5749,19 +5848,19 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="C198" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="E198" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="F198" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198" s="5">
         <v>1</v>
@@ -5769,16 +5868,16 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="C199" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="E199" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="F199" s="5">
         <v>3</v>
@@ -5789,22 +5888,22 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B200" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C200" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="E200" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="F200" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G200" s="5">
         <v>0</v>
@@ -5812,19 +5911,19 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B201" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C201" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="E201" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="F201" s="5">
         <v>2</v>
@@ -5835,22 +5934,22 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B202" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C202" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="E202" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="F202" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G202" s="5">
         <v>0</v>
@@ -5858,22 +5957,22 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B203" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C203" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>188</v>
-      </c>
-      <c r="E203" t="s">
-        <v>193</v>
+        <v>19</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="F203" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G203" s="5">
         <v>0</v>
@@ -5881,31 +5980,31 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B204" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C204" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="E204" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="F204" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G204" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G204" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState ref="A2:G204">
-      <sortCondition ref="A1:A204"/>
+  <autoFilter ref="A1:H204" xr:uid="{1E2F4741-1907-4397-BFA7-69A04E1A15EC}">
+    <sortState ref="A2:H204">
+      <sortCondition ref="C1:C204"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:G47">

--- a/4xCityBuilder/Assets/Definitions/Resources.xlsx
+++ b/4xCityBuilder/Assets/Definitions/Resources.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikeg\OneDrive\Documents\Documents\4XCityBuilder\4xCityBuilder\Assets\Definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGALE\Documents\GME\4XCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C8FBC7-348E-4329-ABF5-1EBF6576BB23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Industry Hierarchy" sheetId="2" r:id="rId1"/>
     <sheet name="Resources" sheetId="1" r:id="rId2"/>
+    <sheet name="Special Resources" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Industry Hierarchy'!$A$1:$B$204</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$1:$H$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Industry Hierarchy'!$A$1:$E$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$1:$H$206</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="359">
   <si>
     <t>Name</t>
   </si>
@@ -928,11 +929,203 @@
   <si>
     <t>Textures/Resource/Shield</t>
   </si>
+  <si>
+    <t>Focus 1</t>
+  </si>
+  <si>
+    <t>Focus 2</t>
+  </si>
+  <si>
+    <t>Focus 3</t>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Earthenware</t>
+  </si>
+  <si>
+    <t>Military Effectiveness</t>
+  </si>
+  <si>
+    <t>Illusion</t>
+  </si>
+  <si>
+    <t>Special Resource</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Adamantium Ore</t>
+  </si>
+  <si>
+    <t>Ore of the strongest metal in the game</t>
+  </si>
+  <si>
+    <t>Firestone</t>
+  </si>
+  <si>
+    <t>Best fuel in the game</t>
+  </si>
+  <si>
+    <t>T4 Mining</t>
+  </si>
+  <si>
+    <t>T4 Destruction Mage</t>
+  </si>
+  <si>
+    <t>Required Leader</t>
+  </si>
+  <si>
+    <t>Required Discovery</t>
+  </si>
+  <si>
+    <t>Silk gathered from giant spider's webs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4 Spider Wrangler </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Movable</t>
+  </si>
+  <si>
+    <t>Best building wood in the game</t>
+  </si>
+  <si>
+    <t>Best building stone in the game</t>
+  </si>
+  <si>
+    <t>T4 [Wood]</t>
+  </si>
+  <si>
+    <t>T4 [Stone]</t>
+  </si>
+  <si>
+    <t>Spider's Eggs</t>
+  </si>
+  <si>
+    <t>Dryad Trees</t>
+  </si>
+  <si>
+    <t>Giant Lizards</t>
+  </si>
+  <si>
+    <t>T4 Master of the Hunt</t>
+  </si>
+  <si>
+    <t>Giant Lizard Territory</t>
+  </si>
+  <si>
+    <t>A hunting spot for giant lizards (Scale Leather, Monster Bone)</t>
+  </si>
+  <si>
+    <t>Deepwater Harbor</t>
+  </si>
+  <si>
+    <t>An ideal spot to build a massive harbor</t>
+  </si>
+  <si>
+    <t>T4 [Trade]</t>
+  </si>
+  <si>
+    <t>Pomegranites</t>
+  </si>
+  <si>
+    <t>The fruit of the gods</t>
+  </si>
+  <si>
+    <t>T4 [Fruit]</t>
+  </si>
+  <si>
+    <t>Pomegranite Trees</t>
+  </si>
+  <si>
+    <t>A brew made from hops and pomegranite and magic…</t>
+  </si>
+  <si>
+    <t>T4 [Brew]</t>
+  </si>
+  <si>
+    <t>Kaolin</t>
+  </si>
+  <si>
+    <t>A rare clay used to make porcelain</t>
+  </si>
+  <si>
+    <t>Kaolin deposit</t>
+  </si>
+  <si>
+    <t>Coarse Sand</t>
+  </si>
+  <si>
+    <t>Crystal Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A beautiful, delicate glass </t>
+  </si>
+  <si>
+    <t>T4 [Craft]</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Fine Sand</t>
+  </si>
+  <si>
+    <t>Enchanting</t>
+  </si>
+  <si>
+    <t># Primary Focii</t>
+  </si>
+  <si>
+    <t># Secondary Focii</t>
+  </si>
+  <si>
+    <t>What enables enchantment magic?</t>
+  </si>
+  <si>
+    <t>What enables illusion magic?</t>
+  </si>
+  <si>
+    <t>What enables life magic?</t>
+  </si>
+  <si>
+    <t>What enables destruction magic?</t>
+  </si>
+  <si>
+    <t>T4 Mounts</t>
+  </si>
+  <si>
+    <t>T4 Animal</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Need a T5 Special Crop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1303,31 +1496,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1335,255 +1538,400 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
         <v>157</v>
       </c>
+      <c r="C32" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B204" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:B31">
-      <sortCondition ref="A1:A204"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H204"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H165" sqref="H165"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,19 +1976,19 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,7 +2002,7 @@
         <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -1665,19 +2013,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -1685,19 +2033,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -1705,105 +2053,102 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="F8" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -1811,22 +2156,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -1834,68 +2176,65 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="F14" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -1903,16 +2242,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -1923,755 +2262,770 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>302</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>342</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
         <v>189</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D41" t="s">
         <v>188</v>
       </c>
-      <c r="E16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="5">
-        <v>5</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="s">
         <v>157</v>
       </c>
-      <c r="C17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
         <v>188</v>
       </c>
-      <c r="E17" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E42" t="s">
+        <v>226</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
         <v>157</v>
       </c>
-      <c r="C18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" t="s">
         <v>188</v>
       </c>
-      <c r="E18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="5">
-        <v>3</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F21" s="5">
-        <v>4</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="5">
-        <v>3</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="5">
-        <v>5</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B47" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="5">
-        <v>5</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="5">
-        <v>3</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="5">
-        <v>5</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="5">
-        <v>3</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="5">
-        <v>5</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="5">
-        <v>3</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="5">
-        <v>2</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="5">
-        <v>5</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" t="s">
-        <v>233</v>
-      </c>
-      <c r="E44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" s="5">
-        <v>2</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="5">
-        <v>2</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="5">
-        <v>2</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" t="s">
-        <v>108</v>
-      </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="F47" s="5">
         <v>2</v>
       </c>
       <c r="G47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="F48" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>275</v>
+        <v>69</v>
       </c>
       <c r="F49" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F50" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="F51" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2679,16 +3033,19 @@
         <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="F52" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -2699,13 +3056,16 @@
         <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="D53" t="s">
+        <v>245</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
@@ -2716,22 +3076,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="F54" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G54" s="5">
         <v>1</v>
@@ -2739,19 +3099,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F55" s="5">
         <v>2</v>
@@ -2762,19 +3122,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>163</v>
+      </c>
+      <c r="D56" t="s">
+        <v>233</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F56" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
@@ -2785,13 +3148,16 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>163</v>
+      </c>
+      <c r="D57" t="s">
+        <v>233</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F57" s="5">
         <v>2</v>
@@ -2805,16 +3171,19 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F58" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G58" s="5">
         <v>0</v>
@@ -2822,22 +3191,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="F59" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
@@ -2845,19 +3211,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="F60" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="5">
         <v>1</v>
@@ -2865,19 +3231,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F61" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" s="5">
         <v>1</v>
@@ -2885,45 +3254,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="F62" s="5">
         <v>2</v>
       </c>
       <c r="G62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="F63" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
@@ -2931,65 +3294,56 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E64" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="F64" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="F65" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="F66" s="5">
         <v>2</v>
@@ -2998,386 +3352,371 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="F67" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="F68" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" t="s">
-        <v>236</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>244</v>
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
       </c>
       <c r="F69" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="F70" s="5">
         <v>2</v>
       </c>
       <c r="G70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="E71" t="s">
-        <v>247</v>
+        <v>143</v>
       </c>
       <c r="F71" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" t="s">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="F72" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G72" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" t="s">
-        <v>245</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>249</v>
+        <v>202</v>
+      </c>
+      <c r="E73" t="s">
+        <v>204</v>
       </c>
       <c r="F73" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G73" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" t="s">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="F74" s="5">
         <v>2</v>
       </c>
       <c r="G74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="5">
+        <v>2</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="5">
+        <v>2</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="5">
+        <v>2</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="5">
+        <v>2</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" s="5">
+        <v>2</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" t="s">
+        <v>173</v>
+      </c>
+      <c r="F80" s="5">
+        <v>2</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" s="5">
+        <v>2</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" s="5">
+        <v>2</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>32</v>
       </c>
-      <c r="B75" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D75" t="s">
-        <v>250</v>
-      </c>
-      <c r="E75" t="s">
-        <v>252</v>
-      </c>
-      <c r="F75" s="5">
-        <v>3</v>
-      </c>
-      <c r="G75" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" t="s">
-        <v>253</v>
-      </c>
-      <c r="F76" s="5">
-        <v>4</v>
-      </c>
-      <c r="G76" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D77" t="s">
-        <v>250</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F77" s="5">
-        <v>5</v>
-      </c>
-      <c r="G77" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" t="s">
-        <v>53</v>
-      </c>
-      <c r="D78" t="s">
-        <v>67</v>
-      </c>
-      <c r="E78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78" s="5">
-        <v>1</v>
-      </c>
-      <c r="G78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="5">
-        <v>3</v>
-      </c>
-      <c r="G79" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E80" t="s">
-        <v>55</v>
-      </c>
-      <c r="F80" s="5">
-        <v>3</v>
-      </c>
-      <c r="G80" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>32</v>
-      </c>
-      <c r="B81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" t="s">
-        <v>54</v>
-      </c>
-      <c r="F81" s="5">
-        <v>3</v>
-      </c>
-      <c r="G81" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" t="s">
-        <v>67</v>
-      </c>
-      <c r="E82" t="s">
-        <v>58</v>
-      </c>
-      <c r="F82" s="5">
-        <v>5</v>
-      </c>
-      <c r="G82" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>81</v>
-      </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F83" s="5">
         <v>3</v>
@@ -3385,82 +3724,85 @@
       <c r="G83" s="5">
         <v>0</v>
       </c>
-      <c r="H83" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E84" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F84" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F85" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G85" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="D86" t="s">
+        <v>63</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F86" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="D87" t="s">
+        <v>236</v>
       </c>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="F87" s="5">
         <v>3</v>
@@ -3469,190 +3811,199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>245</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F88" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G88" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>67</v>
+      </c>
+      <c r="D89" t="s">
+        <v>250</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="F89" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="D90" t="s">
+        <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F90" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G90" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="D91" t="s">
+        <v>67</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F91" s="5">
         <v>3</v>
       </c>
       <c r="G91" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="D92" t="s">
+        <v>67</v>
       </c>
       <c r="E92" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F92" s="5">
         <v>3</v>
       </c>
       <c r="G92" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="C93" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E93" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F93" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
-      </c>
-      <c r="D94" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E94" t="s">
-        <v>279</v>
+        <v>26</v>
       </c>
       <c r="F94" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G94" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
-      </c>
-      <c r="D95" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="E95" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="F95" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G95" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>227</v>
+        <v>4</v>
       </c>
       <c r="F96" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" s="5">
         <v>0</v>
@@ -3660,42 +4011,36 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
-      </c>
-      <c r="D97" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E97" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="F97" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
-      </c>
-      <c r="D98" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F98" s="5">
         <v>3</v>
@@ -3706,22 +4051,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>187</v>
-      </c>
-      <c r="D99" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="E99" t="s">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="F99" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G99" s="5">
         <v>0</v>
@@ -3729,19 +4071,19 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E100" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="F100" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G100" s="5">
         <v>0</v>
@@ -3749,85 +4091,76 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E101" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F101" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G101" s="5">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="F102" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G102" s="5">
-        <v>0</v>
-      </c>
-      <c r="H102" t="s">
-        <v>291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="F103" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G103" s="5">
         <v>0</v>
-      </c>
-      <c r="H103" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E104" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="F104" s="5">
         <v>3</v>
@@ -3835,188 +4168,185 @@
       <c r="G104" s="5">
         <v>0</v>
       </c>
-      <c r="H104" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E105" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="F105" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G105" s="5">
-        <v>0</v>
-      </c>
-      <c r="H105" t="s">
-        <v>291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C106" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="F106" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="F107" s="5">
         <v>3</v>
       </c>
       <c r="G107" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="F108" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G108" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E109" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="F109" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G109" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="E110" t="s">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="F110" s="5">
         <v>3</v>
       </c>
       <c r="G110" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="F111" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G111" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>276</v>
+        <v>30</v>
       </c>
       <c r="F112" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G112" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F113" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G113" s="5">
         <v>0</v>
@@ -4024,16 +4354,16 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B114" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="F114" s="5">
         <v>3</v>
@@ -4044,19 +4374,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B115" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C115" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E115" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="F115" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G115" s="5">
         <v>0</v>
@@ -4064,39 +4394,42 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="C116" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="E116" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="F116" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G116" s="5">
         <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="C117" t="s">
         <v>139</v>
       </c>
       <c r="E117" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="F117" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G117" s="5">
         <v>0</v>
@@ -4113,19 +4446,19 @@
         <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E118" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F118" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G118" s="5">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4133,22 +4466,19 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="E119" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="F119" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119" s="5">
         <v>0</v>
-      </c>
-      <c r="H119" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4156,22 +4486,19 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="C120" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="E120" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="F120" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G120" s="5">
         <v>0</v>
-      </c>
-      <c r="H120" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4179,22 +4506,19 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="E121" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="F121" s="5">
         <v>3</v>
       </c>
       <c r="G121" s="5">
-        <v>0</v>
-      </c>
-      <c r="H121" t="s">
-        <v>292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4202,100 +4526,85 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E122" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F122" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G122" s="5">
         <v>0</v>
-      </c>
-      <c r="H122" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
-      </c>
-      <c r="D123" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E123" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="F123" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G123" s="5">
         <v>0</v>
-      </c>
-      <c r="H123" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="C124" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D124" t="s">
         <v>158</v>
       </c>
       <c r="E124" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="F124" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G124" s="5">
         <v>0</v>
-      </c>
-      <c r="H124" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C125" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E125" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="F125" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
-      </c>
-      <c r="H125" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4306,22 +4615,19 @@
         <v>157</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="D126" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E126" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="F126" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
-      </c>
-      <c r="H126" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4338,10 +4644,10 @@
         <v>158</v>
       </c>
       <c r="E127" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F127" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G127" s="5">
         <v>0</v>
@@ -4358,22 +4664,19 @@
         <v>157</v>
       </c>
       <c r="C128" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
       </c>
       <c r="E128" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F128" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G128" s="5">
         <v>0</v>
-      </c>
-      <c r="H128" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4384,13 +4687,13 @@
         <v>157</v>
       </c>
       <c r="C129" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D129" t="s">
         <v>158</v>
       </c>
       <c r="E129" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F129" s="5">
         <v>3</v>
@@ -4398,9 +4701,6 @@
       <c r="G129" s="5">
         <v>0</v>
       </c>
-      <c r="H129" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -4410,134 +4710,131 @@
         <v>157</v>
       </c>
       <c r="C130" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D130" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E130" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="F130" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G130" s="5">
         <v>0</v>
-      </c>
-      <c r="H130" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="C131" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="D131" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="E131" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="F131" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G131" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C132" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="D132" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="E132" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="F132" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G132" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C133" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="D133" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="E133" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="F133" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G133" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C134" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="D134" t="s">
-        <v>158</v>
+        <v>250</v>
       </c>
       <c r="E134" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="F134" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G134" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C135" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>158</v>
-      </c>
-      <c r="E135" t="s">
-        <v>174</v>
+        <v>19</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="F135" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
@@ -4545,42 +4842,42 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="D136" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="E136" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="F136" s="5">
         <v>4</v>
       </c>
       <c r="G136" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C137" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="E137" t="s">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="F137" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G137" s="5">
         <v>1</v>
@@ -4588,42 +4885,42 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B138" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C138" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E138" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F138" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G138" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B139" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="C139" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="E139" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="F139" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4631,19 +4928,22 @@
         <v>127</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E140" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F140" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G140" s="5">
         <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4651,19 +4951,22 @@
         <v>127</v>
       </c>
       <c r="B141" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C141" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E141" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F141" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G141" s="5">
         <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4671,19 +4974,22 @@
         <v>127</v>
       </c>
       <c r="B142" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E142" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="F142" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G142" s="5">
         <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4691,16 +4997,16 @@
         <v>127</v>
       </c>
       <c r="B143" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="C143" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="E143" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="F143" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G143" s="5">
         <v>0</v>
@@ -4711,13 +5017,13 @@
         <v>127</v>
       </c>
       <c r="B144" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="C144" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="E144" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="F144" s="5">
         <v>4</v>
@@ -4726,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -4737,310 +5043,352 @@
         <v>130</v>
       </c>
       <c r="E145" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F145" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G145" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>127</v>
+      </c>
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" t="s">
+        <v>170</v>
+      </c>
+      <c r="D146" t="s">
+        <v>158</v>
+      </c>
+      <c r="E146" t="s">
+        <v>180</v>
+      </c>
+      <c r="F146" s="5">
+        <v>4</v>
+      </c>
+      <c r="G146" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>127</v>
+      </c>
+      <c r="B147" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" t="s">
+        <v>189</v>
+      </c>
+      <c r="D147" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" t="s">
+        <v>199</v>
+      </c>
+      <c r="F147" s="5">
+        <v>4</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>127</v>
+      </c>
+      <c r="B148" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" t="s">
+        <v>188</v>
+      </c>
+      <c r="E148" t="s">
+        <v>229</v>
+      </c>
+      <c r="F148" s="5">
+        <v>4</v>
+      </c>
+      <c r="G148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" t="s">
+        <v>159</v>
+      </c>
+      <c r="D149" t="s">
+        <v>158</v>
+      </c>
+      <c r="E149" t="s">
+        <v>167</v>
+      </c>
+      <c r="F149" s="5">
+        <v>4</v>
+      </c>
+      <c r="G149" s="5">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" t="s">
+        <v>169</v>
+      </c>
+      <c r="D150" t="s">
+        <v>158</v>
+      </c>
+      <c r="E150" t="s">
+        <v>175</v>
+      </c>
+      <c r="F150" s="5">
+        <v>4</v>
+      </c>
+      <c r="G150" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" t="s">
+        <v>171</v>
+      </c>
+      <c r="D151" t="s">
+        <v>158</v>
+      </c>
+      <c r="E151" t="s">
+        <v>185</v>
+      </c>
+      <c r="F151" s="5">
+        <v>4</v>
+      </c>
+      <c r="G151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>127</v>
+      </c>
+      <c r="B152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" t="s">
+        <v>190</v>
+      </c>
+      <c r="D152" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" t="s">
+        <v>194</v>
+      </c>
+      <c r="F152" s="5">
+        <v>4</v>
+      </c>
+      <c r="G152" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>32</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B153" t="s">
         <v>44</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C153" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" t="s">
+        <v>47</v>
+      </c>
+      <c r="F153" s="5">
+        <v>5</v>
+      </c>
+      <c r="G153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>32</v>
+      </c>
+      <c r="B154" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" t="s">
         <v>90</v>
       </c>
-      <c r="E146" t="s">
-        <v>41</v>
-      </c>
-      <c r="F146" s="5">
-        <v>3</v>
-      </c>
-      <c r="G146" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="E154" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F154" s="5">
+        <v>5</v>
+      </c>
+      <c r="G154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>32</v>
       </c>
-      <c r="B147" t="s">
-        <v>44</v>
-      </c>
-      <c r="C147" t="s">
-        <v>90</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F147" s="5">
+      <c r="B155" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155" t="s">
+        <v>69</v>
+      </c>
+      <c r="D155" t="s">
+        <v>70</v>
+      </c>
+      <c r="E155" t="s">
+        <v>68</v>
+      </c>
+      <c r="F155" s="5">
         <v>5</v>
       </c>
-      <c r="G147" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>81</v>
-      </c>
-      <c r="B148" t="s">
-        <v>100</v>
-      </c>
-      <c r="C148" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" t="s">
-        <v>18</v>
-      </c>
-      <c r="F148" s="5">
+      <c r="G155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" t="s">
+        <v>96</v>
+      </c>
+      <c r="C156" t="s">
+        <v>67</v>
+      </c>
+      <c r="D156" t="s">
+        <v>63</v>
+      </c>
+      <c r="E156" t="s">
+        <v>240</v>
+      </c>
+      <c r="F156" s="5">
         <v>5</v>
       </c>
-      <c r="G148" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>81</v>
-      </c>
-      <c r="B149" t="s">
-        <v>100</v>
-      </c>
-      <c r="C149" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="5">
-        <v>1</v>
-      </c>
-      <c r="G149" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>81</v>
-      </c>
-      <c r="B150" t="s">
-        <v>100</v>
-      </c>
-      <c r="C150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" t="s">
-        <v>17</v>
-      </c>
-      <c r="F150" s="5">
-        <v>3</v>
-      </c>
-      <c r="G150" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>81</v>
-      </c>
-      <c r="B151" t="s">
-        <v>100</v>
-      </c>
-      <c r="C151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" t="s">
-        <v>16</v>
-      </c>
-      <c r="F151" s="5">
-        <v>3</v>
-      </c>
-      <c r="G151" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>81</v>
-      </c>
-      <c r="B152" t="s">
-        <v>100</v>
-      </c>
-      <c r="C152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
-        <v>15</v>
-      </c>
-      <c r="F152" s="5">
-        <v>2</v>
-      </c>
-      <c r="G152" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>81</v>
-      </c>
-      <c r="B153" t="s">
-        <v>100</v>
-      </c>
-      <c r="C153" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="5">
-        <v>1</v>
-      </c>
-      <c r="G153" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>82</v>
-      </c>
-      <c r="B154" t="s">
-        <v>215</v>
-      </c>
-      <c r="C154" t="s">
-        <v>217</v>
-      </c>
-      <c r="E154" t="s">
-        <v>216</v>
-      </c>
-      <c r="F154" s="5">
-        <v>4</v>
-      </c>
-      <c r="G154" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>127</v>
-      </c>
-      <c r="B155" t="s">
-        <v>128</v>
-      </c>
-      <c r="C155" t="s">
-        <v>137</v>
-      </c>
-      <c r="E155" t="s">
-        <v>134</v>
-      </c>
-      <c r="F155" s="5">
-        <v>3</v>
-      </c>
-      <c r="G155" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>127</v>
-      </c>
-      <c r="B156" t="s">
-        <v>128</v>
-      </c>
-      <c r="C156" t="s">
-        <v>137</v>
-      </c>
-      <c r="E156" t="s">
-        <v>132</v>
-      </c>
-      <c r="F156" s="5">
-        <v>2</v>
-      </c>
       <c r="G156" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B157" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C157" t="s">
-        <v>107</v>
-      </c>
-      <c r="E157" t="s">
-        <v>107</v>
+        <v>67</v>
+      </c>
+      <c r="D157" t="s">
+        <v>236</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="F157" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G157" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B158" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C158" t="s">
-        <v>160</v>
-      </c>
-      <c r="E158" t="s">
-        <v>98</v>
+        <v>67</v>
+      </c>
+      <c r="D158" t="s">
+        <v>245</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="F158" s="5">
         <v>5</v>
       </c>
       <c r="G158" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B159" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
-      </c>
-      <c r="E159" t="s">
-        <v>97</v>
+        <v>67</v>
+      </c>
+      <c r="D159" t="s">
+        <v>250</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="F159" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G159" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B160" t="s">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c r="C160" t="s">
-        <v>256</v>
+        <v>53</v>
+      </c>
+      <c r="D160" t="s">
+        <v>67</v>
       </c>
       <c r="E160" t="s">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="F160" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G160" s="5">
         <v>1</v>
@@ -5048,79 +5396,79 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="C161" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="E161" t="s">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="F161" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G161" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="C162" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="E162" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="F162" s="5">
         <v>5</v>
       </c>
       <c r="G162" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B163" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="C163" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="E163" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="F163" s="5">
         <v>5</v>
       </c>
       <c r="G163" s="5">
-        <v>0</v>
-      </c>
-      <c r="H163" t="s">
-        <v>294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C164" t="s">
-        <v>151</v>
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
       </c>
       <c r="E164" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="F164" s="5">
         <v>5</v>
@@ -5128,100 +5476,94 @@
       <c r="G164" s="5">
         <v>0</v>
       </c>
-      <c r="H164" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="C165" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="D165" t="s">
+        <v>158</v>
       </c>
       <c r="E165" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
       <c r="F165" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G165" s="5">
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B166" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="C166" t="s">
-        <v>151</v>
+        <v>171</v>
+      </c>
+      <c r="D166" t="s">
+        <v>158</v>
       </c>
       <c r="E166" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="F166" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G166" s="5">
         <v>0</v>
-      </c>
-      <c r="H166" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="C167" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="E167" t="s">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="F167" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G167" s="5">
-        <v>0</v>
-      </c>
-      <c r="H167" t="s">
-        <v>294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B168" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C168" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="E168" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="F168" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G168" s="5">
         <v>0</v>
-      </c>
-      <c r="H168" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -5229,19 +5571,16 @@
         <v>83</v>
       </c>
       <c r="B169" t="s">
-        <v>264</v>
+        <v>115</v>
       </c>
       <c r="C169" t="s">
-        <v>171</v>
-      </c>
-      <c r="D169" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E169" t="s">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="F169" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G169" s="5">
         <v>0</v>
@@ -5252,62 +5591,53 @@
         <v>83</v>
       </c>
       <c r="B170" t="s">
-        <v>264</v>
+        <v>115</v>
       </c>
       <c r="C170" t="s">
-        <v>171</v>
-      </c>
-      <c r="D170" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E170" t="s">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="F170" s="5">
         <v>5</v>
       </c>
       <c r="G170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B171" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C171" t="s">
-        <v>171</v>
-      </c>
-      <c r="D171" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="E171" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F171" s="5">
         <v>5</v>
       </c>
       <c r="G171" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B172" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C172" t="s">
-        <v>171</v>
-      </c>
-      <c r="D172" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="E172" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="F172" s="5">
         <v>5</v>
@@ -5318,45 +5648,39 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B173" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C173" t="s">
-        <v>171</v>
-      </c>
-      <c r="D173" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="E173" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="F173" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G173" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B174" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="C174" t="s">
-        <v>171</v>
-      </c>
-      <c r="D174" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="E174" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="F174" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G174" s="5">
         <v>0</v>
@@ -5364,22 +5688,19 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B175" t="s">
-        <v>157</v>
+        <v>348</v>
       </c>
       <c r="C175" t="s">
-        <v>171</v>
-      </c>
-      <c r="D175" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E175" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="F175" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G175" s="5">
         <v>0</v>
@@ -5387,88 +5708,85 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B176" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="C176" t="s">
-        <v>171</v>
-      </c>
-      <c r="D176" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="E176" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="F176" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G176" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B177" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="F177" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G177" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>81</v>
       </c>
       <c r="B178" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F178" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G178" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>81</v>
       </c>
       <c r="B179" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F179" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G179" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>81</v>
       </c>
@@ -5488,38 +5806,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B181" t="s">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="E181" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="F181" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G181" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B182" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C182" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="E182" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="F182" s="5">
         <v>5</v>
@@ -5528,201 +5846,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B183" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="C183" t="s">
-        <v>202</v>
+        <v>170</v>
+      </c>
+      <c r="D183" t="s">
+        <v>158</v>
       </c>
       <c r="E183" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="F183" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G183" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B184" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="C184" t="s">
-        <v>202</v>
+        <v>189</v>
+      </c>
+      <c r="D184" t="s">
+        <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c r="F184" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G184" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B185" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="C185" t="s">
-        <v>202</v>
+        <v>187</v>
+      </c>
+      <c r="D185" t="s">
+        <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="F185" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G185" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="C186" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E186" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="F186" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G186" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B187" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="C187" t="s">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="E187" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F187" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G187" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B188" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="C188" t="s">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c r="E188" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F188" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G188" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H188" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B189" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="C189" t="s">
-        <v>267</v>
+        <v>159</v>
+      </c>
+      <c r="D189" t="s">
+        <v>158</v>
       </c>
       <c r="E189" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="F189" s="5">
         <v>5</v>
       </c>
       <c r="G189" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H189" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B190" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="C190" t="s">
-        <v>208</v>
+        <v>169</v>
+      </c>
+      <c r="D190" t="s">
+        <v>158</v>
       </c>
       <c r="E190" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="F190" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G190" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B191" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="C191" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="E191" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="F191" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G191" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H191" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>82</v>
       </c>
       <c r="B192" t="s">
-        <v>221</v>
+        <v>348</v>
       </c>
       <c r="C192" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D192" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E192" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F192" s="5">
         <v>5</v>
@@ -5731,12 +6073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B193" t="s">
-        <v>157</v>
+        <v>348</v>
       </c>
       <c r="C193" t="s">
         <v>190</v>
@@ -5745,7 +6087,7 @@
         <v>188</v>
       </c>
       <c r="E193" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="F193" s="5">
         <v>5</v>
@@ -5754,245 +6096,245 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>127</v>
       </c>
       <c r="B194" t="s">
+        <v>138</v>
+      </c>
+      <c r="C194" t="s">
+        <v>145</v>
+      </c>
+      <c r="E194" t="s">
+        <v>150</v>
+      </c>
+      <c r="F194" s="5">
+        <v>5</v>
+      </c>
+      <c r="G194" s="5">
+        <v>0</v>
+      </c>
+      <c r="H194" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>127</v>
+      </c>
+      <c r="B195" t="s">
+        <v>138</v>
+      </c>
+      <c r="C195" t="s">
+        <v>139</v>
+      </c>
+      <c r="E195" t="s">
+        <v>141</v>
+      </c>
+      <c r="F195" s="5">
+        <v>5</v>
+      </c>
+      <c r="G195" s="5">
+        <v>0</v>
+      </c>
+      <c r="H195" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>127</v>
+      </c>
+      <c r="B196" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" t="s">
+        <v>151</v>
+      </c>
+      <c r="E196" t="s">
+        <v>156</v>
+      </c>
+      <c r="F196" s="5">
+        <v>5</v>
+      </c>
+      <c r="G196" s="5">
+        <v>0</v>
+      </c>
+      <c r="H196" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>127</v>
+      </c>
+      <c r="B197" t="s">
+        <v>201</v>
+      </c>
+      <c r="C197" t="s">
+        <v>211</v>
+      </c>
+      <c r="E197" t="s">
+        <v>214</v>
+      </c>
+      <c r="F197" s="5">
+        <v>5</v>
+      </c>
+      <c r="G197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>127</v>
+      </c>
+      <c r="B198" t="s">
+        <v>201</v>
+      </c>
+      <c r="C198" t="s">
+        <v>202</v>
+      </c>
+      <c r="E198" t="s">
+        <v>207</v>
+      </c>
+      <c r="F198" s="5">
+        <v>5</v>
+      </c>
+      <c r="G198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>127</v>
+      </c>
+      <c r="B199" t="s">
+        <v>128</v>
+      </c>
+      <c r="C199" t="s">
+        <v>130</v>
+      </c>
+      <c r="E199" t="s">
+        <v>135</v>
+      </c>
+      <c r="F199" s="5">
+        <v>5</v>
+      </c>
+      <c r="G199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>127</v>
+      </c>
+      <c r="B200" t="s">
         <v>157</v>
       </c>
-      <c r="C194" t="s">
-        <v>190</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="C200" t="s">
+        <v>170</v>
+      </c>
+      <c r="D200" t="s">
+        <v>158</v>
+      </c>
+      <c r="E200" t="s">
+        <v>181</v>
+      </c>
+      <c r="F200" s="5">
+        <v>5</v>
+      </c>
+      <c r="G200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>127</v>
+      </c>
+      <c r="B201" t="s">
+        <v>157</v>
+      </c>
+      <c r="C201" t="s">
+        <v>189</v>
+      </c>
+      <c r="D201" t="s">
         <v>188</v>
       </c>
-      <c r="E194" t="s">
-        <v>192</v>
-      </c>
-      <c r="F194" s="5">
-        <v>2</v>
-      </c>
-      <c r="G194" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>127</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="E201" t="s">
+        <v>200</v>
+      </c>
+      <c r="F201" s="5">
+        <v>5</v>
+      </c>
+      <c r="G201" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>127</v>
+      </c>
+      <c r="B202" t="s">
         <v>157</v>
       </c>
-      <c r="C195" t="s">
-        <v>190</v>
-      </c>
-      <c r="D195" t="s">
+      <c r="C202" t="s">
+        <v>187</v>
+      </c>
+      <c r="D202" t="s">
         <v>188</v>
       </c>
-      <c r="E195" t="s">
-        <v>191</v>
-      </c>
-      <c r="F195" s="5">
-        <v>1</v>
-      </c>
-      <c r="G195" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>127</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="E202" t="s">
+        <v>230</v>
+      </c>
+      <c r="F202" s="5">
+        <v>5</v>
+      </c>
+      <c r="G202" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>127</v>
+      </c>
+      <c r="B203" t="s">
         <v>157</v>
       </c>
-      <c r="C196" t="s">
-        <v>190</v>
-      </c>
-      <c r="D196" t="s">
-        <v>188</v>
-      </c>
-      <c r="E196" t="s">
-        <v>193</v>
-      </c>
-      <c r="F196" s="5">
-        <v>3</v>
-      </c>
-      <c r="G196" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>127</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="C203" t="s">
+        <v>159</v>
+      </c>
+      <c r="D203" t="s">
+        <v>158</v>
+      </c>
+      <c r="E203" t="s">
+        <v>168</v>
+      </c>
+      <c r="F203" s="5">
+        <v>5</v>
+      </c>
+      <c r="G203" s="5">
+        <v>0</v>
+      </c>
+      <c r="H203" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>127</v>
+      </c>
+      <c r="B204" t="s">
         <v>157</v>
       </c>
-      <c r="C197" t="s">
-        <v>190</v>
-      </c>
-      <c r="D197" t="s">
-        <v>188</v>
-      </c>
-      <c r="E197" t="s">
-        <v>194</v>
-      </c>
-      <c r="F197" s="5">
-        <v>4</v>
-      </c>
-      <c r="G197" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>32</v>
-      </c>
-      <c r="B198" t="s">
-        <v>94</v>
-      </c>
-      <c r="C198" t="s">
-        <v>70</v>
-      </c>
-      <c r="E198" t="s">
-        <v>70</v>
-      </c>
-      <c r="F198" s="5">
-        <v>2</v>
-      </c>
-      <c r="G198" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>32</v>
-      </c>
-      <c r="B199" t="s">
-        <v>94</v>
-      </c>
-      <c r="C199" t="s">
-        <v>70</v>
-      </c>
-      <c r="E199" t="s">
-        <v>71</v>
-      </c>
-      <c r="F199" s="5">
-        <v>3</v>
-      </c>
-      <c r="G199" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>32</v>
-      </c>
-      <c r="B200" t="s">
-        <v>93</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1</v>
-      </c>
-      <c r="D200" t="s">
-        <v>19</v>
-      </c>
-      <c r="E200" t="s">
-        <v>2</v>
-      </c>
-      <c r="F200" s="5">
-        <v>1</v>
-      </c>
-      <c r="G200" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>32</v>
-      </c>
-      <c r="B201" t="s">
-        <v>93</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D201" t="s">
-        <v>19</v>
-      </c>
-      <c r="E201" t="s">
-        <v>3</v>
-      </c>
-      <c r="F201" s="5">
-        <v>2</v>
-      </c>
-      <c r="G201" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>32</v>
-      </c>
-      <c r="B202" t="s">
-        <v>93</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1</v>
-      </c>
-      <c r="D202" t="s">
-        <v>19</v>
-      </c>
-      <c r="E202" t="s">
-        <v>4</v>
-      </c>
-      <c r="F202" s="5">
-        <v>3</v>
-      </c>
-      <c r="G202" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>32</v>
-      </c>
-      <c r="B203" t="s">
-        <v>93</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D203" t="s">
-        <v>19</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F203" s="5">
-        <v>4</v>
-      </c>
-      <c r="G203" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>32</v>
-      </c>
-      <c r="B204" t="s">
-        <v>93</v>
-      </c>
       <c r="C204" t="s">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="D204" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="E204" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="F204" s="5">
         <v>5</v>
@@ -6001,10 +6343,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>127</v>
+      </c>
+      <c r="B205" t="s">
+        <v>157</v>
+      </c>
+      <c r="C205" t="s">
+        <v>171</v>
+      </c>
+      <c r="D205" t="s">
+        <v>158</v>
+      </c>
+      <c r="E205" t="s">
+        <v>186</v>
+      </c>
+      <c r="F205" s="5">
+        <v>5</v>
+      </c>
+      <c r="G205" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>127</v>
+      </c>
+      <c r="B206" t="s">
+        <v>157</v>
+      </c>
+      <c r="C206" t="s">
+        <v>190</v>
+      </c>
+      <c r="D206" t="s">
+        <v>188</v>
+      </c>
+      <c r="E206" t="s">
+        <v>195</v>
+      </c>
+      <c r="F206" s="5">
+        <v>5</v>
+      </c>
+      <c r="G206" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H204" xr:uid="{1E2F4741-1907-4397-BFA7-69A04E1A15EC}">
-    <sortState ref="A2:H204">
-      <sortCondition ref="C1:C204"/>
+  <autoFilter ref="A1:H206">
+    <sortState ref="A2:H206">
+      <sortCondition ref="F1:F206"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:G47">
@@ -6014,4 +6402,560 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="5">
+        <f>SUMIF($B$10:$B$41,$B2,$A$10:$A$41)</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <f>SUMIF($C$10:$C$41,$B2,$A$10:$A$41)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C6" si="0">SUMIF($B$10:$B$41,$B3,$A$10:$A$41)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D6" si="1">SUMIF($C$10:$C$41,$B3,$A$10:$A$41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" t="s">
+        <v>328</v>
+      </c>
+      <c r="H15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" t="s">
+        <v>341</v>
+      </c>
+      <c r="H19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" t="s">
+        <v>355</v>
+      </c>
+      <c r="F25" t="s">
+        <v>356</v>
+      </c>
+      <c r="G25" t="s">
+        <v>357</v>
+      </c>
+      <c r="H25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>